--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -111,7 +111,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -138,6 +138,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,6 +594,9 @@
           <t>Arizona</t>
         </is>
       </c>
+      <c r="C1" s="22" t="n">
+        <v>44307</v>
+      </c>
       <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Alabama</t>
